--- a/public/addStudentList.xlsx
+++ b/public/addStudentList.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>realname</t>
   </si>
@@ -35,78 +32,6 @@
   </si>
   <si>
     <t>enrollmentTimeShool</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>赵梦岩</t>
-  </si>
-  <si>
-    <t>前端( VUE )</t>
-  </si>
-  <si>
-    <t>VIP1</t>
-  </si>
-  <si>
-    <t>2020/10/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>刘丹</t>
-  </si>
-  <si>
-    <t>VIP2</t>
-  </si>
-  <si>
-    <t>2020/12/1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>刘佳</t>
-  </si>
-  <si>
-    <t>2020/2/12</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>刘烁</t>
-  </si>
-  <si>
-    <t>VIP11</t>
-  </si>
-  <si>
-    <t>2021/2/25</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>戴龙邦</t>
-  </si>
-  <si>
-    <t>VIP14</t>
-  </si>
-  <si>
-    <t>2022/3/20</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>付翔宇</t>
-  </si>
-  <si>
-    <t>VIP13</t>
-  </si>
-  <si>
-    <t>2021/4/25</t>
   </si>
 </sst>
 </file>
@@ -755,8 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1105,19 +1028,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,150 +1056,27 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>15111112222</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="6:6">
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>15111112222</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>56</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="3" spans="6:6">
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>15111112222</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="6:6">
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>15111112222</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>125</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
+    <row r="5" spans="6:6">
+      <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>18720138586</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>666</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
-      </c>
+    <row r="6" spans="6:6">
+      <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>15111112222</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>123</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
+    <row r="7" spans="6:6">
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
